--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -348,7 +348,7 @@
     <t xml:space="preserve">illumina-novaseq-sp flowcell</t>
   </si>
   <si>
-    <t xml:space="preserve">illumina-novaseq-x-1_5b flowcell</t>
+    <t xml:space="preserve">illumina-novaseq-x-1.5b flowcell</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-miseq-v2 flowcell</t>
@@ -9032,7 +9032,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.68"/>
   </cols>

--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="482">
   <si>
     <t xml:space="preserve">Experiment Submission Template</t>
   </si>
@@ -384,22 +384,25 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
+    <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara McClintock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illumina-novaseq-s2 flowcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illumina-novaseq-x-25b flowcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illumina-miseq-micro flowcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbara McClintock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">illumina-novaseq-s2 flowcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">illumina-novaseq-x-25b flowcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">illumina-miseq-micro flowcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A04</t>
   </si>
   <si>
     <t xml:space="preserve">Mykonos</t>
@@ -8998,7 +9001,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I100" type="list">
-      <formula1>Index!$E$2:$E$4</formula1>
+      <formula1>Index!$E$2:$E$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E101" type="none">
@@ -9500,31 +9503,34 @@
       <c r="C5" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="F5" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>72</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>73</v>
@@ -9532,2179 +9538,2179 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C98" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C99" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C100" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C101" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C102" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C103" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C104" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C105" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C106" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C107" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C108" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C109" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C110" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C111" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C112" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C113" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C114" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C115" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C116" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C117" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C118" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C119" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C120" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C121" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C122" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C123" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C124" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C125" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C126" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C127" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C128" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C129" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C130" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C131" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C132" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C133" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C134" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C135" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C136" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C137" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C138" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C139" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C140" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C141" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C142" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C143" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C144" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C145" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C146" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C147" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C148" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C149" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C150" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C151" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C152" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C153" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C154" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C155" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C156" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C157" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C158" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C159" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C160" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C161" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C162" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C163" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C164" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C165" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C166" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C167" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C168" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C169" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C170" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C171" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C172" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C173" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C174" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C175" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C176" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C177" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C178" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C179" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C180" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C181" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C182" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C183" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C184" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C185" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C186" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C187" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C188" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C189" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C190" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C191" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C192" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C193" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C194" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C195" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C196" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C197" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C198" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C199" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C200" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C201" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C202" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C203" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C204" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C205" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C206" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C207" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C208" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C209" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C210" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C211" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C212" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C213" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C214" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C215" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C216" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C217" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C218" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C219" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C220" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C221" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C222" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C223" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C224" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C225" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C226" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C227" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C228" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C229" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C230" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C231" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C232" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C233" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C234" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C235" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C236" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C237" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C238" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C239" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C240" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C241" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C242" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C243" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C244" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C245" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C246" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C247" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C248" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C249" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C250" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C251" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C252" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C253" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C254" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C255" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C256" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C257" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C258" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C259" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C260" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C261" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C262" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C263" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C264" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C265" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C266" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C267" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C268" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C269" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C270" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C271" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C272" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C273" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C274" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C275" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C276" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C277" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C278" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C279" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C280" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C281" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C282" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C283" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C284" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C285" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C286" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C287" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C288" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C289" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C290" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C291" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C292" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C293" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C294" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C295" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C296" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C297" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C298" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C299" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C300" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C301" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C302" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C303" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C304" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C305" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C306" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C307" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C308" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C309" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C310" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C311" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C312" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C313" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C314" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C315" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C316" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C317" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C318" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C319" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C320" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C321" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C322" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C323" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C324" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C325" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C326" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C327" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C328" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C329" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C330" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C331" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C332" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C333" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C334" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C335" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C336" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C337" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C338" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C339" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C340" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C341" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C342" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C343" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C344" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C345" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C346" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C347" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C348" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C349" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C350" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C351" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C352" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C353" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C354" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C355" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C356" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C357" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C358" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C359" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C360" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C361" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C362" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C363" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C364" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C365" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C366" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C367" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C368" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C369" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C370" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C371" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C372" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C373" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C374" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C375" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C376" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C377" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C378" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C379" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C380" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C381" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C382" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C383" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C384" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C385" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" state="visible" r:id="rId3"/>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">Sample failed - Remove sample from study workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrie Derick</t>
+    <t xml:space="preserve">A01371R-Carrie Derick</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s1 flowcell</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
   </si>
   <si>
-    <t xml:space="preserve">Barbara McClintock</t>
+    <t xml:space="preserve">A01861-Barbara McClintock</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s2 flowcell</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Mykonos</t>
+    <t xml:space="preserve">M03555-Mykonos</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s4 flowcell</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">A05</t>
   </si>
   <si>
-    <t xml:space="preserve">Maurice</t>
+    <t xml:space="preserve">FS10000133-Maurice</t>
   </si>
   <si>
     <t xml:space="preserve">A06</t>
@@ -2069,7 +2069,7 @@
   </sheetPr>
   <dimension ref="A1:N996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -9411,7 +9411,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" state="visible" r:id="rId3"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="482">
   <si>
     <t xml:space="preserve">Experiment Submission Template</t>
   </si>
@@ -128,6 +128,9 @@
     <t xml:space="preserve">Experiment</t>
   </si>
   <si>
+    <t xml:space="preserve">Illumina Preparation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Experiment Name</t>
   </si>
   <si>
@@ -158,6 +161,15 @@
     <t xml:space="preserve">Read 2 Cycles</t>
   </si>
   <si>
+    <t xml:space="preserve">Flowcell Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencer Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhiX V3 Lot</t>
+  </si>
+  <si>
     <t xml:space="preserve">NaOH 2N Lot</t>
   </si>
   <si>
@@ -230,21 +242,12 @@
     <t xml:space="preserve">Additional information related to the current experiment as a whole.</t>
   </si>
   <si>
-    <t xml:space="preserve">Flowcell Lot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lot of the flowcell.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequencer Side</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sequencer side.</t>
   </si>
   <si>
-    <t xml:space="preserve">PhiX V3 Lot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lot of the PhiX V3. Optional.</t>
   </si>
   <si>
@@ -359,7 +362,7 @@
     <t xml:space="preserve">Sample failed - Remove sample from study workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">A01371R-Carrie Derick</t>
+    <t xml:space="preserve">Carrie Derick</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s1 flowcell</t>
@@ -380,7 +383,7 @@
     <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
   </si>
   <si>
-    <t xml:space="preserve">A01861-Barbara McClintock</t>
+    <t xml:space="preserve">Barbara McClintock</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s2 flowcell</t>
@@ -398,7 +401,7 @@
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">M03555-Mykonos</t>
+    <t xml:space="preserve">Mykonos</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s4 flowcell</t>
@@ -410,7 +413,7 @@
     <t xml:space="preserve">A05</t>
   </si>
   <si>
-    <t xml:space="preserve">FS10000133-Maurice</t>
+    <t xml:space="preserve">Maurice</t>
   </si>
   <si>
     <t xml:space="preserve">A06</t>
@@ -1771,7 +1774,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1809,6 +1812,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2067,12 +2074,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N996"/>
+  <dimension ref="A1:Q996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2087,13 +2094,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,10 +2169,17 @@
       <c r="J4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
@@ -2173,66 +2190,81 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="N6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -2240,7 +2272,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -2248,7 +2280,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
@@ -2256,7 +2288,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
@@ -2264,7 +2296,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
@@ -2272,7 +2304,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
@@ -2280,7 +2312,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
@@ -2288,7 +2320,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
@@ -2296,7 +2328,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
@@ -2304,7 +2336,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
@@ -2312,7 +2344,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
@@ -2320,7 +2352,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
@@ -2328,7 +2360,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
@@ -2336,7 +2368,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
@@ -2344,7 +2376,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
@@ -2352,7 +2384,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
@@ -2360,7 +2392,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
@@ -2368,7 +2400,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
@@ -2376,7 +2408,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="13"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
@@ -2384,7 +2416,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
@@ -2392,7 +2424,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
@@ -2400,7 +2432,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
@@ -2408,7 +2440,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
@@ -2416,7 +2448,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
@@ -2424,7 +2456,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
@@ -2432,7 +2464,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
@@ -2440,7 +2472,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
@@ -2448,7 +2480,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="13"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
@@ -2456,7 +2488,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="13"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
@@ -2464,7 +2496,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
@@ -2472,7 +2504,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="13"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
@@ -2480,7 +2512,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="13"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
@@ -2488,7 +2520,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="13"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
@@ -2496,7 +2528,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
@@ -2504,7 +2536,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="13"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
@@ -2512,7 +2544,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="13"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
@@ -2520,7 +2552,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="13"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
@@ -2528,7 +2560,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
@@ -2536,7 +2568,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
@@ -2544,7 +2576,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="13"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
@@ -2552,7 +2584,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="13"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
@@ -2560,7 +2592,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="13"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
@@ -2568,7 +2600,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="13"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
@@ -2576,7 +2608,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="13"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
@@ -2584,7 +2616,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="13"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
@@ -2592,7 +2624,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="13"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
@@ -2600,7 +2632,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="13"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
@@ -2608,7 +2640,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="13"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
@@ -2616,7 +2648,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="13"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
@@ -2624,7 +2656,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="13"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
@@ -2632,7 +2664,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="13"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
@@ -2640,7 +2672,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="13"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
@@ -2648,7 +2680,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="13"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
@@ -2656,7 +2688,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="13"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
@@ -2664,7 +2696,7 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="13"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
@@ -2672,7 +2704,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="13"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
@@ -2680,7 +2712,7 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="13"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
@@ -2688,7 +2720,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="13"/>
+      <c r="F64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
@@ -2696,7 +2728,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="13"/>
+      <c r="F65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
@@ -2704,7 +2736,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="13"/>
+      <c r="F66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
@@ -2712,7 +2744,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="13"/>
+      <c r="F67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
@@ -2720,7 +2752,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="13"/>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
@@ -2728,7 +2760,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="13"/>
+      <c r="F69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
@@ -2736,7 +2768,7 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="13"/>
+      <c r="F70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
@@ -2744,7 +2776,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="13"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
@@ -2752,7 +2784,7 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="13"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
@@ -2760,7 +2792,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="13"/>
+      <c r="F73" s="14"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
@@ -2768,7 +2800,7 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="13"/>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
@@ -2776,7 +2808,7 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="13"/>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
@@ -2784,7 +2816,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="13"/>
+      <c r="F76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
@@ -2792,7 +2824,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="13"/>
+      <c r="F77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
@@ -2800,7 +2832,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="13"/>
+      <c r="F78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
@@ -2808,7 +2840,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="13"/>
+      <c r="F79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
@@ -2816,7 +2848,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="13"/>
+      <c r="F80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
@@ -2824,7 +2856,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="13"/>
+      <c r="F81" s="14"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -2832,7 +2864,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="13"/>
+      <c r="F82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
@@ -2840,7 +2872,7 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="13"/>
+      <c r="F83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
@@ -2848,7 +2880,7 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="13"/>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
@@ -2856,7 +2888,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="13"/>
+      <c r="F85" s="14"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
@@ -2864,7 +2896,7 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="13"/>
+      <c r="F86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
@@ -2872,7 +2904,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="13"/>
+      <c r="F87" s="14"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
@@ -2880,7 +2912,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="13"/>
+      <c r="F88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
@@ -2888,7 +2920,7 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="13"/>
+      <c r="F89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
@@ -2896,7 +2928,7 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="13"/>
+      <c r="F90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
@@ -2904,7 +2936,7 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="13"/>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
@@ -2912,7 +2944,7 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="13"/>
+      <c r="F92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
@@ -2920,7 +2952,7 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="13"/>
+      <c r="F93" s="14"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
@@ -2928,7 +2960,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="13"/>
+      <c r="F94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
@@ -2936,7 +2968,7 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="13"/>
+      <c r="F95" s="14"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
@@ -2944,567 +2976,567 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="13"/>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
@@ -4687,7 +4719,14 @@
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="2">
+  <mergeCells count="1">
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L27" type="list">
+      <formula1>Index!$D$2:$D$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C100" type="list">
       <formula1>Index!$F$2:$F$6</formula1>
       <formula2>0</formula2>
@@ -4749,7 +4788,7 @@
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="0"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
         <v>5</v>
@@ -4759,45 +4798,45 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="14"/>
+      <c r="A3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="15"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,8 +4983,8 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -9111,287 +9150,287 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>29</v>
+      <c r="A1" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>30</v>
+      <c r="A3" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>33</v>
+      <c r="A7" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="21"/>
+      <c r="A9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="25"/>
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="B29" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="25"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="25"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="25"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="25"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="25"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="25"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="25"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="25"/>
+      <c r="B36" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="25"/>
+      <c r="A37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9411,7 +9450,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9433,2356 +9472,2356 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C98" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C99" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C100" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C101" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C102" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C103" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C104" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C105" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C106" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C107" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C108" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C109" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C110" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C111" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C112" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C113" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C114" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C115" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C116" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C117" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C118" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C119" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C120" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C121" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C122" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C123" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C124" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C125" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C126" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C127" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C128" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C129" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C130" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C131" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C132" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C133" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C134" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C135" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C136" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C137" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C138" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C139" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C140" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C141" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C142" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C143" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C144" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C145" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C146" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C147" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C148" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C149" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C150" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C151" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C152" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C153" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C154" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C155" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C156" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C157" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C158" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C159" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C160" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C161" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C162" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C163" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C164" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C165" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C166" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C167" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C168" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C169" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C170" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C171" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C172" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C173" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C174" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C175" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C176" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C177" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C178" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C179" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C180" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C181" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C182" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C183" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C184" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C185" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C186" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C187" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C188" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C189" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C190" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C191" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C192" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C193" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C194" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C195" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C196" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C197" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C198" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C199" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C200" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C201" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C202" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C203" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C204" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C205" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C206" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C207" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C208" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C209" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C210" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C211" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C212" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C213" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C214" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C215" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C216" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C217" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C218" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C219" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C220" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C221" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C222" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C223" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C224" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C225" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C226" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C227" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C228" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C229" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C230" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C231" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C232" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C233" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C234" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C235" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C236" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C237" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C238" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C239" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C240" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C241" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C242" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C243" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C244" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C245" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C246" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C247" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C248" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C249" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C250" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C251" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C252" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C253" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C254" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C255" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C256" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C257" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C258" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C259" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C260" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C261" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C262" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C263" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C264" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C265" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C266" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C267" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C268" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C269" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C270" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C271" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C272" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C273" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C274" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C275" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C276" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C277" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C278" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C279" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C280" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C281" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C282" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C283" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C284" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C285" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C286" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C287" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C288" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C289" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C290" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C291" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C292" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C293" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C294" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C295" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C296" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C297" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C298" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C299" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C300" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C301" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C302" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C303" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C304" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C305" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C306" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C307" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C308" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C309" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C310" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C311" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C312" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C313" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C314" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C315" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C316" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C317" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C318" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C319" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C320" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C321" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C322" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C323" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C324" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C325" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C326" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C327" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C328" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C329" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C330" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C331" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C332" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C333" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C334" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C335" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C336" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C337" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C338" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C339" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C340" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C341" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C342" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C343" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C344" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C345" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C346" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C347" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C348" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C349" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C350" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C351" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C352" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C353" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C354" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C355" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C356" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C357" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C358" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C359" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C360" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C361" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C362" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C363" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C364" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C365" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C366" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C367" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C368" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C369" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C370" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C371" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C372" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C373" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C374" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C375" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C376" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C377" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C378" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C379" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C380" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C381" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C382" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C383" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C384" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C385" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -362,7 +362,7 @@
     <t xml:space="preserve">Sample failed - Remove sample from study workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrie Derick</t>
+    <t xml:space="preserve">A01371R-Carrie Derick</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s1 flowcell</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
   </si>
   <si>
-    <t xml:space="preserve">Barbara McClintock</t>
+    <t xml:space="preserve">A01861-Barbara McClintock</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s2 flowcell</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Mykonos</t>
+    <t xml:space="preserve">M03555-Mykonos</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s4 flowcell</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">A05</t>
   </si>
   <si>
-    <t xml:space="preserve">Maurice</t>
+    <t xml:space="preserve">FS10000133-Maurice</t>
   </si>
   <si>
     <t xml:space="preserve">A06</t>
@@ -2100,10 +2100,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="20.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,7 +4788,6 @@
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
         <v>5</v>

--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -338,7 +338,25 @@
     <t xml:space="preserve">Step complete - Move to next step</t>
   </si>
   <si>
-    <t xml:space="preserve">LH00375-Rosalind Franklin</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rosalind Franklin (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">LH00375)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-sp flowcell</t>
@@ -362,7 +380,25 @@
     <t xml:space="preserve">Sample failed - Remove sample from study workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">A01371R-Carrie Derick</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Carrie Derick (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">A01371R)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s1 flowcell</t>
@@ -383,7 +419,25 @@
     <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
   </si>
   <si>
-    <t xml:space="preserve">A01861-Barbara McClintock</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Barbara McClintock (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">A01861)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s2 flowcell</t>
@@ -401,7 +455,25 @@
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
   </si>
   <si>
-    <t xml:space="preserve">M03555-Mykonos</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mykonos (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">M03555)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s4 flowcell</t>
@@ -413,7 +485,25 @@
     <t xml:space="preserve">A05</t>
   </si>
   <si>
-    <t xml:space="preserve">FS10000133-Maurice</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Maurice (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">FS10000133)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">A06</t>
@@ -1562,7 +1652,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1671,6 +1761,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -9504,7 +9600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -9539,7 +9635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -9571,7 +9667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -9603,7 +9699,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -9629,7 +9725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>

--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Experiments" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Samples" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Info" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Index" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Experiments" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Samples" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Info" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Index" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="iSeq_flowcells" vbProcedure="false">Index!$K$2</definedName>
@@ -31,16 +31,18 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Illumina Flowcell Barcode</t>
         </r>
@@ -53,16 +55,18 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">A01: Lane 1
 A02: Lane 2
@@ -338,25 +342,7 @@
     <t xml:space="preserve">Step complete - Move to next step</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Rosalind Franklin (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">LH00375)</t>
-    </r>
+    <t xml:space="preserve">Rosalind Franklin (LH00375)</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-sp flowcell</t>
@@ -380,25 +366,7 @@
     <t xml:space="preserve">Sample failed - Remove sample from study workflow</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Carrie Derick (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">A01371R)</t>
-    </r>
+    <t xml:space="preserve">Carrie Derick (A01371R)</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s1 flowcell</t>
@@ -419,25 +387,7 @@
     <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Barbara McClintock (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">A01861)</t>
-    </r>
+    <t xml:space="preserve">Barbara McClintock (A01861)</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s2 flowcell</t>
@@ -455,25 +405,7 @@
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Mykonos (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">M03555)</t>
-    </r>
+    <t xml:space="preserve">Mykonos (M03555)</t>
   </si>
   <si>
     <t xml:space="preserve">illumina-novaseq-s4 flowcell</t>
@@ -485,25 +417,7 @@
     <t xml:space="preserve">A05</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Maurice (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">FS10000133)</t>
-    </r>
+    <t xml:space="preserve">Maurice (FS10000133)</t>
   </si>
   <si>
     <t xml:space="preserve">A06</t>
@@ -1652,7 +1566,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1713,11 +1627,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="13"/>
       <color rgb="FF000000"/>
@@ -1761,12 +1670,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1947,11 +1850,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1963,27 +1870,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2059,114 +1962,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4844,7 +4641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9229,7 +9026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9539,7 +9336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9556,7 +9353,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.21"/>

--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -117,7 +117,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Version : 4.8.0</t>
+    <t xml:space="preserve">Version : 4.12.0</t>
   </si>
   <si>
     <t xml:space="preserve">Run Type</t>

--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="B6" authorId="0">
@@ -55,7 +55,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="G4" authorId="0">
@@ -381,7 +381,7 @@
     <t xml:space="preserve">A03</t>
   </si>
   <si>
-    <t xml:space="preserve">N/A</t>
+    <t xml:space="preserve">No Side</t>
   </si>
   <si>
     <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
@@ -4616,22 +4616,22 @@
     <mergeCell ref="G5:H5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L27" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L27" type="list">
       <formula1>Index!$D$2:$D$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C100" type="list">
       <formula1>Index!$F$2:$F$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D100" type="list">
       <formula1>INDIRECT(SUBSTITUTE(INDEX(Index!$G$2:$G$6, MATCH(C7, Index!$F$2:$F$6, 0), 1), " ", "_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8993,30 +8993,30 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:D101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:D101" type="list">
       <formula1>Index!$B$2:$B$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A100" type="list">
       <formula1>Experiments!$A$7:$A$106</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I100" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I100" type="list">
       <formula1>Index!$E$2:$E$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E101" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E101" type="none">
       <formula1>Index!$B$2:$B$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5:G1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5:G1000" type="list">
       <formula1>"1,2,3,4,5,6,7,8,A01,A02,A03,A04,A05,A06,A07,A08"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9327,7 +9327,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -12334,7 +12334,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_illumina_v4_8_0.xlsx
@@ -2159,7 +2159,7 @@
       <c r="F7" s="14"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2167,7 +2167,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2175,7 +2175,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2183,7 +2183,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2191,7 +2191,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2199,7 +2199,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2207,7 +2207,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2215,7 +2215,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2223,7 +2223,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4616,7 +4616,7 @@
     <mergeCell ref="G5:H5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L27" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L100" type="list">
       <formula1>Index!$D$2:$D$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
